--- a/Data/Stat_Dice_Source.xlsx
+++ b/Data/Stat_Dice_Source.xlsx
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493467C2-674F-43CC-AA8A-90508E1624B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Creature</t>
   </si>
@@ -244,13 +244,29 @@
   </si>
   <si>
     <t>Sense Life 90%.</t>
+  </si>
+  <si>
+    <t>Harpy</t>
+  </si>
+  <si>
+    <t>4D6</t>
+  </si>
+  <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>3/10 (Fly)</t>
+  </si>
+  <si>
+    <t>Dodge 65%, Flying 90%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,37 +585,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.66018295288086" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.604382514953613" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.182878494262695" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.145583152770996" customWidth="1"/>
+    <col min="8" max="8" width="9.392607688903809" customWidth="1"/>
+    <col min="9" max="9" width="10.477056503295898" customWidth="1"/>
+    <col min="10" max="10" width="11.90320873260498" customWidth="1"/>
+    <col min="11" max="11" width="9.402838706970215" customWidth="1"/>
+    <col min="12" max="12" width="11.90320873260498" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="14" max="14" width="11.90320873260498" customWidth="1"/>
+    <col min="15" max="15" width="15.97910213470459" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.196737289428711" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.996866226196289" customWidth="1"/>
+    <col min="22" max="22" width="22.217754364013672" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,551 +687,586 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>60</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>9</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0">
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="0">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0">
         <v>3</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3">
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="0">
         <v>8</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0">
         <v>9</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0">
         <v>5</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0">
         <v>4</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="0">
         <v>5</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>60</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <v>7</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>90</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <v>9</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>40</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <v>6</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0">
         <v>6</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <v>6</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <v>6</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>60</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <v>8</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>60</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0">
         <v>3</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>60</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>90</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0">
         <v>10</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="0" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Stat_Dice_Source.xlsx
+++ b/Data/Stat_Dice_Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493467C2-674F-43CC-AA8A-90508E1624B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46972ABC-F9D3-4E9A-9630-D176133D6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Creature</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Dodge 65%, Flying 90%.</t>
+  </si>
+  <si>
+    <t>Lesser Hydra</t>
+  </si>
+  <si>
+    <t>1D6+12</t>
+  </si>
+  <si>
+    <t>2D6+18</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -1266,6 +1275,32 @@
         <v>77</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="0">
+        <v>6</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Data/Stat_Dice_Source.xlsx
+++ b/Data/Stat_Dice_Source.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46972ABC-F9D3-4E9A-9630-D176133D6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC5660-AC4A-4AEF-9682-2DA2688D30AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>Creature</t>
   </si>
@@ -268,14 +268,16 @@
   </si>
   <si>
     <t>2D6+18</t>
+  </si>
+  <si>
+    <t>Disorder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,41 +596,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.66018295288086" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.604382514953613" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.182878494262695" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.145583152770996" customWidth="1"/>
-    <col min="8" max="8" width="9.392607688903809" customWidth="1"/>
-    <col min="9" max="9" width="10.477056503295898" customWidth="1"/>
-    <col min="10" max="10" width="11.90320873260498" customWidth="1"/>
-    <col min="11" max="11" width="9.402838706970215" customWidth="1"/>
-    <col min="12" max="12" width="11.90320873260498" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.90320873260498" customWidth="1"/>
-    <col min="15" max="15" width="15.97910213470459" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.196737289428711" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.996866226196289" customWidth="1"/>
-    <col min="22" max="22" width="22.217754364013672" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,612 +694,630 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>60</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>60</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>9</v>
       </c>
-      <c r="P2" s="0">
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="Q2" s="0">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="R2" s="0">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>3</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O4">
         <v>9</v>
       </c>
-      <c r="P4" s="0">
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="Q4" s="0">
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="R4" s="0">
+      <c r="R4">
         <v>4</v>
       </c>
-      <c r="S4" s="0">
+      <c r="S4">
         <v>4</v>
       </c>
-      <c r="T4" s="0">
+      <c r="T4">
         <v>5</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>90</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <v>9</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>40</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="O8" s="0">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <v>6</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="U10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <v>6</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>80</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>60</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <v>8</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="U12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>80</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>60</v>
       </c>
-      <c r="O13" s="0">
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="U13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>60</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14">
         <v>90</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14">
         <v>10</v>
       </c>
-      <c r="O14" s="0">
+      <c r="O14">
         <v>10</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="U14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="U15" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="V15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" t="s">
         <v>76</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="U16" t="s">
         <v>73</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="V16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="0">
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+      <c r="O17">
         <v>6</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Stat_Dice_Source.xlsx
+++ b/Data/Stat_Dice_Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D661F-AE8A-469D-99DF-70912A02F83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D25BD-BE0A-4D59-BE75-D11334A20C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="30090" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
+    <workbookView xWindow="41235" yWindow="2520" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Creature</t>
   </si>
@@ -340,6 +340,21 @@
   </si>
   <si>
     <t>Chitinous shell worth 7 points on the body and 3 points on the legs.</t>
+  </si>
+  <si>
+    <t>Cave Troll</t>
+  </si>
+  <si>
+    <t>4D6+12</t>
+  </si>
+  <si>
+    <t>2D6+3</t>
+  </si>
+  <si>
+    <t>Darksense Scan 50%, Darksense Search 50%, Dodge 25%, Track by Scent 50%.</t>
+  </si>
+  <si>
+    <t>Speak Darktongue 25%.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -697,7 +712,7 @@
     <col min="19" max="19" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="12.996866226196289" customWidth="1"/>
-    <col min="22" max="22" width="60.13869094848633" customWidth="1"/>
+    <col min="22" max="22" width="69.32274627685547" customWidth="1"/>
     <col min="23" max="23" width="32.32973098754883" customWidth="1"/>
     <col min="24" max="24" width="20.327129364013672" customWidth="1"/>
     <col min="25" max="25" width="37.7888069152832" customWidth="1"/>
@@ -1484,6 +1499,50 @@
         <v>104</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="0">
+        <v>7</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
